--- a/output/instance_SMALL_scenario_2/dual_variables_iteration11.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration11.xlsx
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9799637333288382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.450244719321548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.4546765017223541</v>
+        <v>0.0341205504697939</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1850561031384661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -664,7 +664,7 @@
         <v>0</v>
       </c>
       <c r="B29" t="n">
-        <v>3.067743011708759</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0</v>
+        <v>0.06836140242543505</v>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>0.9640031548732854</v>
       </c>
     </row>
     <row r="41">
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>1.096994568825546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -904,23 +904,23 @@
         <v>0</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2006016872782641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.2631967101396526</v>
+        <v>0</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07123536082388177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.1703575412560603</v>
+        <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>0.2802411233517159</v>
+        <v>1.013194205666437</v>
       </c>
     </row>
     <row r="62">
@@ -962,7 +962,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.693622437590772</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6608059.409709428</v>
+        <v>8263140.549510287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>776970.7676577449</v>
+        <v>-947466.1289446583</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8749.480054724962</v>
+        <v>6227793.953838659</v>
       </c>
     </row>
   </sheetData>

--- a/output/instance_SMALL_scenario_2/dual_variables_iteration11.xlsx
+++ b/output/instance_SMALL_scenario_2/dual_variables_iteration11.xlsx
@@ -552,15 +552,15 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0.450244719321548</v>
+        <v>0.06536809121972878</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0341205504697939</v>
+        <v>0.05412794201161027</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.07830710215390414</v>
       </c>
     </row>
     <row r="17">
@@ -621,10 +621,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0</v>
+        <v>0.3677267441372666</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.08832357937858312</v>
       </c>
     </row>
     <row r="25">
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.2340227058923388</v>
       </c>
     </row>
     <row r="26">
@@ -645,10 +645,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0</v>
+        <v>0.1183802703740772</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.08016175730869057</v>
       </c>
     </row>
     <row r="28">
@@ -749,10 +749,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.06836140242543505</v>
+        <v>0</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9640031548732854</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -805,10 +805,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0</v>
+        <v>0.140767149045204</v>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>1.746325518992349</v>
       </c>
     </row>
     <row r="48">
@@ -821,7 +821,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0</v>
+        <v>0.157809606073953</v>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -840,12 +840,12 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>0.09625705141564801</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0</v>
+        <v>0.05182702263477508</v>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="n">
-        <v>1.013194205666437</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -957,12 +957,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0.2883272966876143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>-0.1957672534221044</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +991,17 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8263140.549510287</v>
+        <v>3099722.89946284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-947466.1289446583</v>
+        <v>2111876.148112711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6227793.953838659</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
